--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GrantTypeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GrantTypeProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D3339-CBC2-4067-9611-38E65AC83A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E380B-B824-45D2-B3F5-0DFE4A0E23C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Keyword</t>
   </si>
@@ -67,12 +67,6 @@
     <t>getData=Title</t>
   </si>
   <si>
-    <t>enterDate</t>
-  </si>
-  <si>
-    <t>getConfigData=ReqDueDate</t>
-  </si>
-  <si>
     <t>jsClick</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>txt_title</t>
   </si>
   <si>
-    <t>txt_endDate</t>
-  </si>
-  <si>
     <t>button_setStatus</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
   </si>
   <si>
     <t>txt_last_proc_date</t>
-  </si>
-  <si>
-    <t>Offset2</t>
   </si>
   <si>
     <t>link_grantTypeProfileProfile_wait</t>
@@ -589,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7908BCD2-227C-44D5-BFDD-3C1E61FB2E24}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -641,10 +629,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -658,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -672,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -686,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
@@ -696,22 +684,22 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -724,21 +712,15 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -754,7 +736,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -762,9 +744,6 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -773,11 +752,6 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,7 +764,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,25 +779,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -831,20 +805,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7">
         <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="7"/>
     </row>
   </sheetData>
